--- a/Main Board/BOM-MB-Rev2g.xlsx
+++ b/Main Board/BOM-MB-Rev2g.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pwver\Documents\Hobby\Curve Tracer\Version 3\Final Version\Main Board\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D5EB78B2-E041-40DE-B3DC-C2233BA0F478}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17E943D7-FF01-4ABA-B51F-0E64A4BC2771}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2085" yWindow="810" windowWidth="19590" windowHeight="15570" xr2:uid="{D0F92D7D-FA28-431C-AE5F-3583BE58530B}"/>
+    <workbookView xWindow="1140" yWindow="2430" windowWidth="21600" windowHeight="9810" xr2:uid="{D0F92D7D-FA28-431C-AE5F-3583BE58530B}"/>
   </bookViews>
   <sheets>
     <sheet name="MainBoardRev2b" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1075" uniqueCount="710">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1078" uniqueCount="713">
   <si>
     <t>Quantity</t>
   </si>
@@ -3099,13 +3099,22 @@
   </si>
   <si>
     <t>RMCF0805FT301KCT-ND</t>
+  </si>
+  <si>
+    <t>https://nl.aliexpress.com/item/1005002942389730.html?spm=a2g0o.productlist.main.9.8badZ4V9Z4V92a&amp;algo_pvid=94a6380a-288b-4c3a-acc3-61c2ba7c95ce&amp;algo_exp_id=94a6380a-288b-4c3a-acc3-61c2ba7c95ce-8&amp;pdp_ext_f=%7B%22order%22%3A%2241%22%2C%22eval%22%3A%221%22%7D&amp;pdp_npi=6%40dis%21EUR%210.31%210.27%21%21%210.35%210.30%21%40211b80d117550731005353576e8de1%2112000022896959057%21sea%21NL%210%21ABX%211%210%21n_tag%3A-29910%3Bm03_new_user%3A-29895&amp;curPageLogUid=Souz7hgWNLUp&amp;utparam-url=scene%3Asearch%7Cquery_from%3A%7Cx_object_id%3A1005002942389730%7C_p_origin_prod%3A</t>
+  </si>
+  <si>
+    <t> https://nl.aliexpress.com/w/wholesale-pre-crimped-cable-6-colors.html?spm=a2g0o.home.auto_suggest.4.60ca306bMkCXSW</t>
+  </si>
+  <si>
+    <t>Cable harnesses:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3164,6 +3173,14 @@
       <color rgb="FF222222"/>
       <name val="Georgia"/>
       <family val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -3229,10 +3246,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -3349,8 +3367,10 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3668,10 +3688,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{141DE95B-5139-4F8A-9CCE-A913B8066809}">
-  <dimension ref="A1:M138"/>
+  <dimension ref="A1:M140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M27" sqref="M27"/>
+    <sheetView tabSelected="1" topLeftCell="A115" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A117" sqref="A117:XFD118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7790,9 +7810,13 @@
       <c r="L116" s="3"/>
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B117" s="14"/>
+      <c r="B117" s="14" t="s">
+        <v>712</v>
+      </c>
       <c r="C117" s="3"/>
-      <c r="D117" s="3"/>
+      <c r="D117" s="3" t="s">
+        <v>710</v>
+      </c>
       <c r="E117" s="3"/>
       <c r="F117" s="3"/>
       <c r="G117" s="3"/>
@@ -7803,129 +7827,160 @@
       <c r="L117" s="3"/>
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B118" s="17" t="s">
-        <v>624</v>
-      </c>
+      <c r="B118" s="14"/>
+      <c r="C118" s="3"/>
+      <c r="D118" s="44" t="s">
+        <v>711</v>
+      </c>
+      <c r="E118" s="3"/>
+      <c r="F118" s="3"/>
+      <c r="G118" s="3"/>
+      <c r="H118" s="3"/>
+      <c r="I118" s="3"/>
+      <c r="J118" s="3"/>
+      <c r="K118" s="3"/>
+      <c r="L118" s="3"/>
+    </row>
+    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B119" s="14"/>
+      <c r="C119" s="3"/>
+      <c r="D119" s="44"/>
+      <c r="E119" s="3"/>
+      <c r="F119" s="3"/>
+      <c r="G119" s="3"/>
+      <c r="H119" s="3"/>
+      <c r="I119" s="3"/>
+      <c r="J119" s="3"/>
+      <c r="K119" s="3"/>
+      <c r="L119" s="3"/>
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B120" s="17" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B122" s="17" t="s">
         <v>625</v>
       </c>
-      <c r="D120" t="s">
+      <c r="D122" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B121" s="17" t="s">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B123" s="17" t="s">
         <v>634</v>
       </c>
-      <c r="D121" t="s">
+      <c r="D123" t="s">
         <v>635</v>
-      </c>
-    </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D122" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D123" t="s">
-        <v>649</v>
       </c>
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D124" t="s">
-        <v>650</v>
+        <v>636</v>
       </c>
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D125" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D126" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D127" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D128" t="s">
-        <v>641</v>
+        <v>649</v>
       </c>
     </row>
     <row r="129" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D129" t="s">
-        <v>646</v>
+        <v>652</v>
       </c>
     </row>
     <row r="130" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D130" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="131" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D131" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="132" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D132" t="s">
         <v>648</v>
-      </c>
-    </row>
-    <row r="131" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B131" s="17" t="s">
-        <v>668</v>
-      </c>
-      <c r="D131" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="132" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B132" s="17" t="s">
-        <v>669</v>
-      </c>
-      <c r="D132" t="s">
-        <v>681</v>
       </c>
     </row>
     <row r="133" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B133" s="17" t="s">
-        <v>683</v>
+        <v>668</v>
       </c>
       <c r="D133" t="s">
-        <v>684</v>
+        <v>657</v>
       </c>
     </row>
     <row r="134" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B134" s="17" t="s">
+        <v>669</v>
+      </c>
       <c r="D134" t="s">
-        <v>686</v>
+        <v>681</v>
       </c>
     </row>
     <row r="135" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B135" s="17" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="D135" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
     </row>
     <row r="136" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D136" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="137" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B137" s="17" t="s">
+        <v>687</v>
+      </c>
+      <c r="D137" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="138" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D138" t="s">
         <v>702</v>
       </c>
     </row>
-    <row r="137" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D137" t="s">
+    <row r="139" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D139" t="s">
         <v>703</v>
       </c>
     </row>
-    <row r="138" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B138" s="17" t="s">
+    <row r="140" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B140" s="17" t="s">
         <v>707</v>
       </c>
-      <c r="D138" t="s">
+      <c r="D140" t="s">
         <v>708</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="D118" r:id="rId1" display="https://nl.aliexpress.com/w/wholesale-pre-crimped-cable-6-colors.html?spm=a2g0o.home.auto_suggest.4.60ca306bMkCXSW" xr:uid="{B8F034F5-A27F-4EE5-8C91-7ACAC66ACF23}"/>
+  </hyperlinks>
   <pageMargins left="0.45" right="0.45" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
-  <pageSetup scale="115" orientation="landscape" r:id="rId1"/>
+  <pageSetup scale="115" orientation="landscape" r:id="rId2"/>
 </worksheet>
 </file>